--- a/Documentação/Modelagem do Sistema/Requisitos e regras de negócio.xlsx
+++ b/Documentação/Modelagem do Sistema/Requisitos e regras de negócio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <workbookPr codeName="EstaPastaDeTrabalho"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caio_va_silva\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Documents\GitHub\SA-Estoque-TBit-Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA8648C0-06E0-4897-9490-DD52C2B7CF81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99691174-B981-4F53-AAE3-84C86FFB17F0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C57725DA-0EA8-4C24-B6CA-911F936AED6A}"/>
+    <workbookView xWindow="3990" yWindow="4365" windowWidth="11370" windowHeight="7155" activeTab="2" xr2:uid="{C57725DA-0EA8-4C24-B6CA-911F936AED6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Regras de negócio" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="118">
   <si>
     <t xml:space="preserve">Regra de negócio </t>
   </si>
@@ -262,27 +256,6 @@
     <t>RF019</t>
   </si>
   <si>
-    <t>RF020</t>
-  </si>
-  <si>
-    <t>RF021</t>
-  </si>
-  <si>
-    <t>RF022</t>
-  </si>
-  <si>
-    <t>RF023</t>
-  </si>
-  <si>
-    <t>RF024</t>
-  </si>
-  <si>
-    <t>RF025</t>
-  </si>
-  <si>
-    <t>RF026</t>
-  </si>
-  <si>
     <t>Autenticação</t>
   </si>
   <si>
@@ -325,12 +298,6 @@
     <t>O sistema deve validar se o login é único antes do cadastro.</t>
   </si>
   <si>
-    <t>Funcionários devem poder cadastrar novos produtos.</t>
-  </si>
-  <si>
-    <t>Funcionários devem poder editar produtos existentes.</t>
-  </si>
-  <si>
     <t>Funcionários devem visualizar todos os produtos e seus dados.</t>
   </si>
   <si>
@@ -340,9 +307,6 @@
     <t>Categorias</t>
   </si>
   <si>
-    <t>O produto deve conter categoria, marca, modelo, fornecedor e quantidade.</t>
-  </si>
-  <si>
     <t>O sistema deve permitir busca por nome, categoria ou marca.</t>
   </si>
   <si>
@@ -370,30 +334,15 @@
     <t>Não permitir saída de produtos sem estoque suficiente.</t>
   </si>
   <si>
-    <t>As movimentações de saída devem ficar registradas nas vendas.</t>
-  </si>
-  <si>
     <t>Histórico</t>
   </si>
   <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Administrador deve visualizar: vendas por categoria, total de vendas, renda total, produtos mais vendidos, compras por cliente.</t>
-  </si>
-  <si>
     <t>Gráficos</t>
   </si>
   <si>
     <t>O dashboard deve exibir gráficos simples com informações.</t>
   </si>
   <si>
-    <t>Estoque Baixo</t>
-  </si>
-  <si>
-    <t>O sistema deve emitir alertas para produtos com estoque abaixo do mínimo.</t>
-  </si>
-  <si>
     <t>Confirmação</t>
   </si>
   <si>
@@ -404,24 +353,6 @@
   </si>
   <si>
     <t>Telas devem ajustar tamanho dos campos conforme a janela.</t>
-  </si>
-  <si>
-    <t>Filtro</t>
-  </si>
-  <si>
-    <t>O sistema deve permitir filtrar histórico por data, usuário ou produto.</t>
-  </si>
-  <si>
-    <t>Filtros</t>
-  </si>
-  <si>
-    <t>O sistema deve permitir filtrar o estoque por categoria, marca ou fornecedor.</t>
-  </si>
-  <si>
-    <t>Ordenações</t>
-  </si>
-  <si>
-    <t>Permitir ordenação alfabética ou por quantidade em estoque.</t>
   </si>
   <si>
     <t>Todo funcionário deve estar autenticado para acessar determinadas informações.</t>
@@ -450,6 +381,12 @@
   </si>
   <si>
     <t>Devem existir as seguintes métricas: categorias mais vendidas, quantidade total de pedidos, quantidade total de produtos, renda total baseada nos pedidos, clientes com mais pedidos e evolução das vendas agrupadas por meses.</t>
+  </si>
+  <si>
+    <t>O produto deve conter categoria, fornecedor e quantidade.</t>
+  </si>
+  <si>
+    <t>As movimentações de saída devem ficar registradas nos pedidos.</t>
   </si>
 </sst>
 </file>
@@ -628,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -673,9 +610,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -684,25 +618,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -735,52 +660,6 @@
   </cellStyles>
   <dxfs count="36">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
@@ -849,36 +728,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1323,6 +1172,82 @@
         </horizontal>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1337,39 +1262,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28EACC13-3FD0-4962-A132-752AA37638C2}" name="Tabela1" displayName="Tabela1" ref="A1:B15" totalsRowShown="0" headerRowDxfId="0" dataDxfId="4" headerRowBorderDxfId="2" tableBorderDxfId="3" totalsRowBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28EACC13-3FD0-4962-A132-752AA37638C2}" name="Tabela1" displayName="Tabela1" ref="A1:B15" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
   <autoFilter ref="A1:B15" xr:uid="{28EACC13-3FD0-4962-A132-752AA37638C2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{7C3F8B30-430F-4052-A21D-9AE9416731D7}" name="Regra de negócio " dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{4848CDBB-FB33-4315-9BBE-3A2646E7E2F6}" name="Descrição " dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{7C3F8B30-430F-4052-A21D-9AE9416731D7}" name="Regra de negócio " dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{4848CDBB-FB33-4315-9BBE-3A2646E7E2F6}" name="Descrição " dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05838EA0-FE89-4962-9521-FCDD19D9C210}" name="Tabela2" displayName="Tabela2" ref="A1:E9" insertRowShift="1" totalsRowShown="0" headerRowDxfId="35" dataDxfId="33" headerRowBorderDxfId="34" tableBorderDxfId="32" totalsRowBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{05838EA0-FE89-4962-9521-FCDD19D9C210}" name="Tabela2" displayName="Tabela2" ref="A1:E9" insertRowShift="1" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <autoFilter ref="A1:E9" xr:uid="{05838EA0-FE89-4962-9521-FCDD19D9C210}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B2E11D13-1D01-4766-8E2B-4899A8A0667C}" name="Código" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{DC94BC7F-DDDE-43B8-8EFF-5893AF4F1B0F}" name="Classificação" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{1E60994D-27FD-407C-BA90-CD0BE20425F2}" name="Tipo" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{6CA5A832-7FD2-479B-93D9-DB2B70F81700}" name="Descrição" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{F0F9E323-942B-4784-900B-C3C25E48073A}" name="Prioridade" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{B2E11D13-1D01-4766-8E2B-4899A8A0667C}" name="Código" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{DC94BC7F-DDDE-43B8-8EFF-5893AF4F1B0F}" name="Classificação" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{1E60994D-27FD-407C-BA90-CD0BE20425F2}" name="Tipo" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{6CA5A832-7FD2-479B-93D9-DB2B70F81700}" name="Descrição" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F0F9E323-942B-4784-900B-C3C25E48073A}" name="Prioridade" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FD0776B0-C00E-482C-91B7-B9A96B10DAD0}" name="Tabela5" displayName="Tabela5" ref="A1:E27" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
-  <autoFilter ref="A1:E27" xr:uid="{FD0776B0-C00E-482C-91B7-B9A96B10DAD0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FD0776B0-C00E-482C-91B7-B9A96B10DAD0}" name="Tabela5" displayName="Tabela5" ref="A1:E20" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16" totalsRowBorderDxfId="15">
+  <autoFilter ref="A1:E20" xr:uid="{FD0776B0-C00E-482C-91B7-B9A96B10DAD0}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{B508EAE1-E931-44CD-A734-F55A7182C9B1}" name="Código" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{4A8A3E59-7DFC-4DC6-988E-3E7FCDF29A8D}" name="Classificação" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{33D1B94A-04D7-4C56-BE49-869A5AC8E01E}" name="Tipo" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{A284AD45-2A5D-4210-BD16-FFB1F41468E5}" name="Descrição" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{7D1C4412-9A6C-4743-9F5E-22CA4B790496}" name="Prioridade" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{B508EAE1-E931-44CD-A734-F55A7182C9B1}" name="Código" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{4A8A3E59-7DFC-4DC6-988E-3E7FCDF29A8D}" name="Classificação" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{33D1B94A-04D7-4C56-BE49-869A5AC8E01E}" name="Tipo" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{A284AD45-2A5D-4210-BD16-FFB1F41468E5}" name="Descrição" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{7D1C4412-9A6C-4743-9F5E-22CA4B790496}" name="Prioridade" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1695,8 +1620,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1714,23 +1639,23 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1738,39 +1663,39 @@
       </c>
     </row>
     <row r="5" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1778,7 +1703,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="29" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1786,23 +1711,23 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="29" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="29" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1810,15 +1735,15 @@
       </c>
     </row>
     <row r="14" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A14" s="33" t="s">
+      <c r="A14" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30.4" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="29" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1849,7 +1774,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1874,7 +1799,7 @@
       <c r="D1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="24" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1885,13 +1810,13 @@
       <c r="B2" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1902,13 +1827,13 @@
       <c r="B3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1919,13 +1844,13 @@
       <c r="B4" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1936,13 +1861,13 @@
       <c r="B5" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1953,13 +1878,13 @@
       <c r="B6" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E6" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1970,13 +1895,13 @@
       <c r="B7" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="E7" s="25" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1984,16 +1909,16 @@
       <c r="A8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E8" s="26" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2001,16 +1926,16 @@
       <c r="A9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2032,522 +1957,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B9">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
       <formula>"Desejável"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:C1 B2:B9">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>"Essencial"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E9">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
-      <formula>"Baixa"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>"Média"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
-      <formula>"Alta"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C822D-E021-441A-B115-D4F72ACC5C21}">
-  <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="30.4" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="116.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A2" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A3" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A5" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A6" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A7" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A8" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A9" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A10" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A11" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A13" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A14" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A15" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="30.4" customHeight="1">
-      <c r="A16" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A17" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A18" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A19" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A20" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A21" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A22" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A23" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A24" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A25" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A26" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="30.4" customHeight="1">
-      <c r="A27" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B27">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
-      <formula>"Desejável"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
-      <formula>"Essencial"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E27">
     <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
       <formula>"Baixa"</formula>
     </cfRule>
@@ -2563,4 +1982,391 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{944C822D-E021-441A-B115-D4F72ACC5C21}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E8" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="30.4" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="30.4" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30.4" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.4" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30.4" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.4" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B2:B20">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Desejável"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Essencial"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E20">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Baixa"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Média"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Alta"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>